--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H2">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I2">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J2">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>20.88834103713375</v>
+        <v>19.60089104710333</v>
       </c>
       <c r="R2">
-        <v>83.55336414853498</v>
+        <v>117.60534628262</v>
       </c>
       <c r="S2">
-        <v>0.04321199411064266</v>
+        <v>0.1051899369152957</v>
       </c>
       <c r="T2">
-        <v>0.02604959265564118</v>
+        <v>0.08918418311077687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H3">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I3">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J3">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>51.48150016517749</v>
+        <v>34.81710131791223</v>
       </c>
       <c r="R3">
-        <v>308.889000991065</v>
+        <v>313.35391186121</v>
       </c>
       <c r="S3">
-        <v>0.1065004768923457</v>
+        <v>0.1868490918297251</v>
       </c>
       <c r="T3">
-        <v>0.09630291650879351</v>
+        <v>0.2376270598000726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H4">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I4">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J4">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>11.5941419616</v>
+        <v>11.18189071285667</v>
       </c>
       <c r="R4">
-        <v>69.5648517696</v>
+        <v>100.63701641571</v>
       </c>
       <c r="S4">
-        <v>0.02398495855999108</v>
+        <v>0.0600086177639842</v>
       </c>
       <c r="T4">
-        <v>0.02168836731129889</v>
+        <v>0.07631651437148415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H5">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I5">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J5">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>34.1234037679125</v>
+        <v>11.72960074003167</v>
       </c>
       <c r="R5">
-        <v>136.49361507165</v>
+        <v>70.37760444019</v>
       </c>
       <c r="S5">
-        <v>0.07059154769796164</v>
+        <v>0.06294795266809447</v>
       </c>
       <c r="T5">
-        <v>0.04255487626316852</v>
+        <v>0.05336976047167421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H6">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I6">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J6">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>20.6579872807325</v>
+        <v>4.994339667774444</v>
       </c>
       <c r="R6">
-        <v>123.947923684395</v>
+        <v>44.94905700996999</v>
       </c>
       <c r="S6">
-        <v>0.04273545817381169</v>
+        <v>0.02680257103232003</v>
       </c>
       <c r="T6">
-        <v>0.03864348198776388</v>
+        <v>0.03408641747799807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H7">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I7">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J7">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>11.8753196460475</v>
+        <v>5.564725410156667</v>
       </c>
       <c r="R7">
-        <v>71.25191787628499</v>
+        <v>50.08252869141</v>
       </c>
       <c r="S7">
-        <v>0.02456663464536281</v>
+        <v>0.02986359719252804</v>
       </c>
       <c r="T7">
-        <v>0.0222143471483783</v>
+        <v>0.03797930579390273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H8">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I8">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J8">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>14.126851080865</v>
+        <v>2.792769250455333</v>
       </c>
       <c r="R8">
-        <v>84.76110648519</v>
+        <v>16.756615502732</v>
       </c>
       <c r="S8">
-        <v>0.02922440822959815</v>
+        <v>0.01498764625385683</v>
       </c>
       <c r="T8">
-        <v>0.02642613280125286</v>
+        <v>0.01270711844784035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H9">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I9">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J9">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
-        <v>34.81710131791223</v>
+        <v>4.960801512389556</v>
       </c>
       <c r="R9">
-        <v>313.35391186121</v>
+        <v>44.647213611506</v>
       </c>
       <c r="S9">
-        <v>0.07202660921825502</v>
+        <v>0.02662258551835978</v>
       </c>
       <c r="T9">
-        <v>0.09769495033766794</v>
+        <v>0.03385751923680161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H10">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I10">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J10">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>7.841154862933334</v>
+        <v>1.593215352800666</v>
       </c>
       <c r="R10">
-        <v>70.5703937664</v>
+        <v>14.338938175206</v>
       </c>
       <c r="S10">
-        <v>0.01622110330137573</v>
+        <v>0.008550132851146561</v>
       </c>
       <c r="T10">
-        <v>0.02200186706898926</v>
+        <v>0.01087371049236616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H11">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I11">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J11">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>23.07776584768333</v>
+        <v>1.671254035755667</v>
       </c>
       <c r="R11">
-        <v>138.4665950861</v>
+        <v>10.027524214534</v>
       </c>
       <c r="S11">
-        <v>0.04774128687979911</v>
+        <v>0.008968934430996287</v>
       </c>
       <c r="T11">
-        <v>0.043169996027859</v>
+        <v>0.00760421684867664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H12">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I12">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J12">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>13.97106210715889</v>
+        <v>0.711602254049111</v>
       </c>
       <c r="R12">
-        <v>125.73955896443</v>
+        <v>6.404420286441999</v>
       </c>
       <c r="S12">
-        <v>0.0289021254689747</v>
+        <v>0.003818877214935096</v>
       </c>
       <c r="T12">
-        <v>0.03920206355665702</v>
+        <v>0.004856692400461278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H13">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I13">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J13">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>8.031316219854446</v>
+        <v>0.7928718125806666</v>
       </c>
       <c r="R13">
-        <v>72.28184597869001</v>
+        <v>7.135846313226001</v>
       </c>
       <c r="S13">
-        <v>0.01661449267685264</v>
+        <v>0.004255017577866792</v>
       </c>
       <c r="T13">
-        <v>0.02253544980900311</v>
+        <v>0.005411357938777305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H14">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I14">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J14">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>7.170330690054</v>
+        <v>13.4212495736235</v>
       </c>
       <c r="R14">
-        <v>43.02198414032399</v>
+        <v>53.68499829449399</v>
       </c>
       <c r="S14">
-        <v>0.01483336024623284</v>
+        <v>0.07202633760787788</v>
       </c>
       <c r="T14">
-        <v>0.01341304654233417</v>
+        <v>0.04071118252304706</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H15">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I15">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J15">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>17.672029576124</v>
+        <v>23.8401920144795</v>
       </c>
       <c r="R15">
-        <v>159.048266185116</v>
+        <v>143.041152086877</v>
       </c>
       <c r="S15">
-        <v>0.03655836701483493</v>
+        <v>0.1279405251539438</v>
       </c>
       <c r="T15">
-        <v>0.04958678311675025</v>
+        <v>0.1084730303793832</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H16">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I16">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J16">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>3.97991548416</v>
+        <v>7.656536919754497</v>
       </c>
       <c r="R16">
-        <v>35.81923935744</v>
+        <v>45.93922151852699</v>
       </c>
       <c r="S16">
-        <v>0.008233305084240245</v>
+        <v>0.04108949096462791</v>
       </c>
       <c r="T16">
-        <v>0.01116743298136348</v>
+        <v>0.03483729331512819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H17">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I17">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J17">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>11.71352425026</v>
+        <v>8.031568491075749</v>
       </c>
       <c r="R17">
-        <v>70.28114550155999</v>
+        <v>32.126273964303</v>
       </c>
       <c r="S17">
-        <v>0.02423192631800117</v>
+        <v>0.04310213147335399</v>
       </c>
       <c r="T17">
-        <v>0.02191168758247524</v>
+        <v>0.02436245961993994</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H18">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I18">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J18">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>7.091257267891999</v>
+        <v>3.419756733281499</v>
       </c>
       <c r="R18">
-        <v>63.82131541102799</v>
+        <v>20.51854039968899</v>
       </c>
       <c r="S18">
-        <v>0.01466977998647461</v>
+        <v>0.01835243072241349</v>
       </c>
       <c r="T18">
-        <v>0.01989769396058033</v>
+        <v>0.01555991561620161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H19">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I19">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J19">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>4.076435211436</v>
+        <v>3.8103149677695</v>
       </c>
       <c r="R19">
-        <v>36.687916902924</v>
+        <v>22.861889806617</v>
       </c>
       <c r="S19">
-        <v>0.008432976751760265</v>
+        <v>0.02044839645931877</v>
       </c>
       <c r="T19">
-        <v>0.01143826224646324</v>
+        <v>0.01733695815045655</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H20">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I20">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J20">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>11.3983473035835</v>
+        <v>2.589465590705</v>
       </c>
       <c r="R20">
-        <v>45.593389214334</v>
+        <v>15.53679354423</v>
       </c>
       <c r="S20">
-        <v>0.02357991549821497</v>
+        <v>0.01389659895950709</v>
       </c>
       <c r="T20">
-        <v>0.0142147384360505</v>
+        <v>0.01178208545955973</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H21">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I21">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J21">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>28.092418519451</v>
+        <v>4.599672821718333</v>
       </c>
       <c r="R21">
-        <v>168.554511116706</v>
+        <v>41.397055395465</v>
       </c>
       <c r="S21">
-        <v>0.05811516680325123</v>
+        <v>0.02468455606353951</v>
       </c>
       <c r="T21">
-        <v>0.05255056333884219</v>
+        <v>0.03139281236215136</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H22">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I22">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J22">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>6.326689923839999</v>
+        <v>1.477234946635</v>
       </c>
       <c r="R22">
-        <v>37.96013954304</v>
+        <v>13.295114519715</v>
       </c>
       <c r="S22">
-        <v>0.01308810916304104</v>
+        <v>0.007927713616293472</v>
       </c>
       <c r="T22">
-        <v>0.01183490554000425</v>
+        <v>0.01008214307668969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H23">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I23">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J23">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>18.620454665865</v>
+        <v>1.5495926912725</v>
       </c>
       <c r="R23">
-        <v>74.48181866345999</v>
+        <v>9.297556147634999</v>
       </c>
       <c r="S23">
-        <v>0.03852038684778464</v>
+        <v>0.008316027931977428</v>
       </c>
       <c r="T23">
-        <v>0.02322133951405337</v>
+        <v>0.007050656931537386</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H24">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I24">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J24">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>11.272647894833</v>
+        <v>0.6598001431116666</v>
       </c>
       <c r="R24">
-        <v>67.63588736899798</v>
+        <v>5.938201288004999</v>
       </c>
       <c r="S24">
-        <v>0.02331987942828573</v>
+        <v>0.003540876548103462</v>
       </c>
       <c r="T24">
-        <v>0.02108697037899122</v>
+        <v>0.004503142482531457</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H25">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I25">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J25">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>6.480122927239</v>
+        <v>0.735153567085</v>
       </c>
       <c r="R25">
-        <v>38.880737563434</v>
+        <v>6.616382103765001</v>
       </c>
       <c r="S25">
-        <v>0.01340551809597014</v>
+        <v>0.003945267445183515</v>
       </c>
       <c r="T25">
-        <v>0.01212192215118727</v>
+        <v>0.005017430344153052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H26">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I26">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J26">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>10.6628515504185</v>
+        <v>3.152715660997</v>
       </c>
       <c r="R26">
-        <v>63.977109302511</v>
+        <v>18.916293965982</v>
       </c>
       <c r="S26">
-        <v>0.02205838546872778</v>
+        <v>0.01691933089649764</v>
       </c>
       <c r="T26">
-        <v>0.01994626612105199</v>
+        <v>0.01434487698191265</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H27">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I27">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J27">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>26.27971234662767</v>
+        <v>5.600175029375667</v>
       </c>
       <c r="R27">
-        <v>236.517411119649</v>
+        <v>50.401575264381</v>
       </c>
       <c r="S27">
-        <v>0.05436519698395743</v>
+        <v>0.03005384074831113</v>
       </c>
       <c r="T27">
-        <v>0.07373948707416232</v>
+        <v>0.03822124979461451</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H28">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I28">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J28">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>5.918450602239999</v>
+        <v>1.798557110759</v>
       </c>
       <c r="R28">
-        <v>53.26605542016</v>
+        <v>16.187013996831</v>
       </c>
       <c r="S28">
-        <v>0.01224357894738861</v>
+        <v>0.009652117782025769</v>
       </c>
       <c r="T28">
-        <v>0.01660686030069688</v>
+        <v>0.01227517001515285</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H29">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I29">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J29">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>17.418941414515</v>
+        <v>1.8866538190265</v>
       </c>
       <c r="R29">
-        <v>104.51364848709</v>
+        <v>11.319922914159</v>
       </c>
       <c r="S29">
-        <v>0.03603480010593203</v>
+        <v>0.01012489665533485</v>
       </c>
       <c r="T29">
-        <v>0.03258442072067424</v>
+        <v>0.008584287278489399</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H30">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I30">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J30">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>10.54526308782967</v>
+        <v>0.8033171986463333</v>
       </c>
       <c r="R30">
-        <v>94.90736779046699</v>
+        <v>7.229854787816999</v>
       </c>
       <c r="S30">
-        <v>0.02181512862301489</v>
+        <v>0.00431107367749323</v>
       </c>
       <c r="T30">
-        <v>0.02958945215617789</v>
+        <v>0.005482647801669597</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H31">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I31">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J31">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N31">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O31">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P31">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q31">
-        <v>6.061983106962334</v>
+        <v>0.8950611942890001</v>
       </c>
       <c r="R31">
-        <v>54.557847962661</v>
+        <v>8.055550748601</v>
       </c>
       <c r="S31">
-        <v>0.01254050658456771</v>
+        <v>0.004803426045088043</v>
       </c>
       <c r="T31">
-        <v>0.01700960494025352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.261338</v>
-      </c>
-      <c r="H32">
-        <v>0.784014</v>
-      </c>
-      <c r="I32">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J32">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.6794795</v>
-      </c>
-      <c r="N32">
-        <v>21.358959</v>
-      </c>
-      <c r="O32">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P32">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q32">
-        <v>2.790953813571</v>
-      </c>
-      <c r="R32">
-        <v>16.745722881426</v>
-      </c>
-      <c r="S32">
-        <v>0.005773683967563876</v>
-      </c>
-      <c r="T32">
-        <v>0.005220846153003711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.261338</v>
-      </c>
-      <c r="H33">
-        <v>0.784014</v>
-      </c>
-      <c r="I33">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J33">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N33">
-        <v>78.962081</v>
-      </c>
-      <c r="O33">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P33">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q33">
-        <v>6.878597441459334</v>
-      </c>
-      <c r="R33">
-        <v>61.907376973134</v>
-      </c>
-      <c r="S33">
-        <v>0.01422984772229709</v>
-      </c>
-      <c r="T33">
-        <v>0.01930098170149666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.261338</v>
-      </c>
-      <c r="H34">
-        <v>0.784014</v>
-      </c>
-      <c r="I34">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J34">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.92768</v>
-      </c>
-      <c r="N34">
-        <v>17.78304</v>
-      </c>
-      <c r="O34">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P34">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q34">
-        <v>1.54912803584</v>
-      </c>
-      <c r="R34">
-        <v>13.94215232256</v>
-      </c>
-      <c r="S34">
-        <v>0.003204702156209864</v>
-      </c>
-      <c r="T34">
-        <v>0.004346771580614538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.261338</v>
-      </c>
-      <c r="H35">
-        <v>0.784014</v>
-      </c>
-      <c r="I35">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J35">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>17.446105</v>
-      </c>
-      <c r="N35">
-        <v>34.89221</v>
-      </c>
-      <c r="O35">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P35">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q35">
-        <v>4.55933018849</v>
-      </c>
-      <c r="R35">
-        <v>27.35598113094</v>
-      </c>
-      <c r="S35">
-        <v>0.009431948133327657</v>
-      </c>
-      <c r="T35">
-        <v>0.008528826725511184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.261338</v>
-      </c>
-      <c r="H36">
-        <v>0.784014</v>
-      </c>
-      <c r="I36">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J36">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N36">
-        <v>31.685123</v>
-      </c>
-      <c r="O36">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P36">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q36">
-        <v>2.760175558191333</v>
-      </c>
-      <c r="R36">
-        <v>24.841580023722</v>
-      </c>
-      <c r="S36">
-        <v>0.005710012573658651</v>
-      </c>
-      <c r="T36">
-        <v>0.00774490706789593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.261338</v>
-      </c>
-      <c r="H37">
-        <v>0.784014</v>
-      </c>
-      <c r="I37">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J37">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N37">
-        <v>18.214309</v>
-      </c>
-      <c r="O37">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P37">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q37">
-        <v>1.586697028480667</v>
-      </c>
-      <c r="R37">
-        <v>14.280273256326</v>
-      </c>
-      <c r="S37">
-        <v>0.00328242164029169</v>
-      </c>
-      <c r="T37">
-        <v>0.004452188192892307</v>
+        <v>0.006108801476549527</v>
       </c>
     </row>
   </sheetData>
